--- a/UseCaseScenariji/SlanjeZalbe.xlsx
+++ b/UseCaseScenariji/SlanjeZalbe.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CetiriA\UseCaseScenarij\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Podnošenje prijave protiv službenog lica</t>
-  </si>
-  <si>
-    <t>Pravno lice(pojedinac/ građanin)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>1. Građanin popunjava obrazac na aplikaciji, jer smatra da je službeno lice djelovalo van svojih zakonskihokvira, te se osjeća oštećeno.</t>
   </si>
@@ -30,14 +29,92 @@
     <t>2. Pojedinac postavlja svoju žalbu na aplikaciji, te kao sredstvo identifikacije koristi senzor otiska prsta, suprotno njegova žalba neće biti validna, niti postavljena na server</t>
   </si>
   <si>
-    <t>Inspektor</t>
+    <t>3.  Inspektor uzima u razmatranje tužbu, provjerava podatke i činjenice navedene u tužbi, te istu prosljeđuje sudu.</t>
+  </si>
+  <si>
+    <t>4. Sud donosi odluku o validnosti tužbe, te poziva građanina, i tuženog na saslušanje, na osnovu kojeg će donijeti presudu.</t>
+  </si>
+  <si>
+    <t>5. Sud donosi presudu, ovisno kojoj ili sankcioniše policajca, ili sankcioniše pojedinca.</t>
+  </si>
+  <si>
+    <t>6. Administrator unosi sudsku odluku u bazu podataka, te uklanja službeno lice iz iste ukoliko sud donese takvu odluku. Građaninu unosi 1 negativan poen. U slučaju da građanin sakupi više od 3 negativna poena, onemogućuje mu se mogućnost žalbe na aplikaciji.</t>
+  </si>
+  <si>
+    <t>INSPEKTOR</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>Naziv</t>
+  </si>
+  <si>
+    <t>Podnošenje žalbe</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Građanin, pojedinac, podnosi žalbu preko aplikacije</t>
+  </si>
+  <si>
+    <t>Preduvjeti</t>
+  </si>
+  <si>
+    <t>Neophodnost potvrde identiteta pomoću senzora otiska prsta</t>
+  </si>
+  <si>
+    <t>Posljedice - uspješan završetak</t>
+  </si>
+  <si>
+    <t>Žalba je podnesena, nalazi se u sistemu, te je maksimalno trajanje odgovora na žalbu 7 dana od podnošenja žalbe.</t>
+  </si>
+  <si>
+    <t>Posljedice - neuspješan završetak</t>
+  </si>
+  <si>
+    <t>Žalba nije validna, te se ne uzima u razmatranje, tj. automatski se briše iz baze podataka.</t>
+  </si>
+  <si>
+    <t>Primarni akteri</t>
+  </si>
+  <si>
+    <t>Građanin, inspektor, sud, administrator</t>
+  </si>
+  <si>
+    <t>Glavni tok</t>
+  </si>
+  <si>
+    <t>Završava se povraton informacijom aplikacije, da je žalba uspješno podnesena, ili da je odbijena.</t>
+  </si>
+  <si>
+    <t>PODNOŠENJE PRIJAVE PROTIV SLUŽBENOG LICA - Uspješan razvoj</t>
+  </si>
+  <si>
+    <t>PODNOŠENJE PRIJAVE PROTIV SLUŽBENOG LICA - Neuspješan razvoj situacije</t>
+  </si>
+  <si>
+    <t>GRAĐANIN(POJEDINAC/ PODNOSILAC TUŽBE)</t>
+  </si>
+  <si>
+    <t>GRAĐANIN                     ( POJEDINAC/ PODNOSILAC TUŽBE)</t>
+  </si>
+  <si>
+    <t>ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>2. Pojedinac unosi žalbu, bez prethodne lične identifikacije pomoću senzora.</t>
+  </si>
+  <si>
+    <t>3. Žalba se ne uzima u razmatranje, te se istom pojedincu onemogućuje unos žalbi u toku dana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +122,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,23 +173,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -89,6 +253,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -137,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,49 +548,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
